--- a/OR Scheduling.xlsx
+++ b/OR Scheduling.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prathamesh\Desktop\Side projects\Supply Chain Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BF79AF-BF43-457A-B23F-AC9F348FFF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4FFF29-7E9F-4C11-AFDA-537B7D5C5069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Target Hours per Week" sheetId="1" r:id="rId1"/>
     <sheet name="Available teams per week" sheetId="2" r:id="rId2"/>
-    <sheet name="Max Daily OR requirements" sheetId="3" r:id="rId3"/>
-    <sheet name="Weekly OR requirements" sheetId="4" r:id="rId4"/>
+    <sheet name="Weekly OR requirements" sheetId="4" r:id="rId3"/>
+    <sheet name="Max Daily OR requirements" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Department</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>Gynecology</t>
+  </si>
+  <si>
+    <t>Orthopedics</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +421,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>39.4</v>
@@ -439,7 +445,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>26.3</v>
@@ -463,7 +469,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +502,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -556,7 +562,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -601,148 +607,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EB8F99-1DCC-4EBF-AC91-BB8B3C239357}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE1DE7B-8A96-463B-B3B0-4C6E7F25D1DF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -824,4 +688,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EB8F99-1DCC-4EBF-AC91-BB8B3C239357}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>